--- a/ПР2.xlsx
+++ b/ПР2.xlsx
@@ -20,27 +20,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+  <si>
+    <t xml:space="preserve">КИНОПРОКАТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fact 2 work schedule</t>
+  </si>
   <si>
     <t xml:space="preserve">fact 1 sales</t>
   </si>
   <si>
+    <t xml:space="preserve">Filial ID</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sales ID</t>
   </si>
   <si>
+    <t xml:space="preserve">Employes ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movies ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">working days quantity ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">client ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">working days quantity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vacation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weekend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order Quantity</t>
+  </si>
+  <si>
     <t xml:space="preserve">Clients </t>
   </si>
   <si>
-    <t xml:space="preserve">Movies ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">client ID</t>
+    <t xml:space="preserve">Movies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales data</t>
   </si>
   <si>
     <t xml:space="preserve">First name</t>
   </si>
   <si>
-    <t xml:space="preserve">Filial ID</t>
+    <t xml:space="preserve">Name </t>
   </si>
   <si>
     <t xml:space="preserve">Last Name </t>
@@ -49,43 +85,49 @@
     <t xml:space="preserve">Address</t>
   </si>
   <si>
+    <t xml:space="preserve">Disk Quantity</t>
+  </si>
+  <si>
     <t xml:space="preserve">Phone</t>
   </si>
   <si>
-    <t xml:space="preserve">Movies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name </t>
-  </si>
-  <si>
     <t xml:space="preserve">Employes</t>
   </si>
   <si>
-    <t xml:space="preserve">Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employes ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disk Quantity</t>
+    <t xml:space="preserve">Salary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
   </si>
   <si>
     <t xml:space="preserve">Job Title </t>
   </si>
   <si>
-    <t xml:space="preserve">Filial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salary</t>
+    <t xml:space="preserve">salary rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qualification</t>
   </si>
   <si>
     <t xml:space="preserve">City</t>
   </si>
   <si>
+    <t xml:space="preserve">Birth day</t>
+  </si>
+  <si>
     <t xml:space="preserve">Postcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">salary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Посчитайте, кто получил наибольшую зарплату, исходя из количества отработанный дней, рабочей ставки иквалификации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Выберите фильм был отдан в прокат наибольшее количество раз за сентяюрь 2016 и какой дозод он принес</t>
   </si>
 </sst>
 </file>
@@ -95,7 +137,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -119,6 +161,14 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -126,7 +176,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,14 +185,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFEAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFEAD1DC"/>
-        <bgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCFE2F3"/>
         <bgColor rgb="FFEAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -180,20 +242,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -222,7 +296,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFEAD1DC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -247,7 +321,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFEAD1DC"/>
+      <rgbColor rgb="FFF4CCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -274,150 +348,211 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C8:F35"/>
+  <dimension ref="C2:I32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="1" t="s">
-        <v>0</v>
+      <c r="G8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>2</v>
+      <c r="G9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="2" t="s">
+      <c r="G10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I11" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="2" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>11</v>
+      <c r="G25" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F26" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F27" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="2" t="s">
-        <v>6</v>
+      <c r="E26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="2" t="s">
-        <v>18</v>
+      <c r="C31" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>19</v>
+      <c r="C32" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
